--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H2">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I2">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J2">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q2">
-        <v>0.08445015424888888</v>
+        <v>0.2200205967633333</v>
       </c>
       <c r="R2">
-        <v>0.76005138824</v>
+        <v>1.98018537087</v>
       </c>
       <c r="S2">
-        <v>0.0001013895483372927</v>
+        <v>0.0001081167162519982</v>
       </c>
       <c r="T2">
-        <v>0.0001423387321030953</v>
+        <v>0.0001637765392413238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H3">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I3">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J3">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P3">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q3">
-        <v>12.90775590828</v>
+        <v>28.52135033895</v>
       </c>
       <c r="R3">
-        <v>116.16980317452</v>
+        <v>256.69215305055</v>
       </c>
       <c r="S3">
-        <v>0.01549685199782509</v>
+        <v>0.01401520942622032</v>
       </c>
       <c r="T3">
-        <v>0.02175571645335373</v>
+        <v>0.02123041261462952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H4">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I4">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J4">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N4">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O4">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P4">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q4">
-        <v>0.009108432171999999</v>
+        <v>0.06185807045055555</v>
       </c>
       <c r="R4">
-        <v>0.081975889548</v>
+        <v>0.556722634055</v>
       </c>
       <c r="S4">
-        <v>1.093544271403266E-05</v>
+        <v>3.039666080895465E-05</v>
       </c>
       <c r="T4">
-        <v>1.535204640347452E-05</v>
+        <v>4.604523781669112E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H5">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I5">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J5">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N5">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O5">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P5">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q5">
-        <v>2.275236350868</v>
+        <v>7.299667098085833</v>
       </c>
       <c r="R5">
-        <v>13.651418105208</v>
+        <v>43.798002588515</v>
       </c>
       <c r="S5">
-        <v>0.00273161355389865</v>
+        <v>0.003587009798117759</v>
       </c>
       <c r="T5">
-        <v>0.002556571272113734</v>
+        <v>0.003622431210305333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>21.806844</v>
       </c>
       <c r="I6">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J6">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N6">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O6">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P6">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q6">
-        <v>1.045904697893333</v>
+        <v>1.233206103992</v>
       </c>
       <c r="R6">
-        <v>9.413142281039999</v>
+        <v>11.098854935928</v>
       </c>
       <c r="S6">
-        <v>0.001255696995066801</v>
+        <v>0.0006059896045503084</v>
       </c>
       <c r="T6">
-        <v>0.001762847562836355</v>
+        <v>0.0009179605493950027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J7">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q7">
         <v>159.86095778988</v>
@@ -886,10 +886,10 @@
         <v>1438.74862010892</v>
       </c>
       <c r="S7">
-        <v>0.1919265920973283</v>
+        <v>0.07855465382512521</v>
       </c>
       <c r="T7">
-        <v>0.2694418529720724</v>
+        <v>0.1189955613782475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>21.806844</v>
       </c>
       <c r="I8">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J8">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N8">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O8">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P8">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q8">
-        <v>0.112806804012</v>
+        <v>0.3467118587213333</v>
       </c>
       <c r="R8">
-        <v>1.015261236108</v>
+        <v>3.120406728492</v>
       </c>
       <c r="S8">
-        <v>0.00013543410322783</v>
+        <v>0.0001703719933588702</v>
       </c>
       <c r="T8">
-        <v>0.000190133192751175</v>
+        <v>0.0002580816031345741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>21.806844</v>
       </c>
       <c r="I9">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J9">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N9">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O9">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P9">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q9">
-        <v>28.17852032782799</v>
+        <v>40.91432418098599</v>
       </c>
       <c r="R9">
-        <v>169.071121966968</v>
+        <v>245.485945085916</v>
       </c>
       <c r="S9">
-        <v>0.03383069544706358</v>
+        <v>0.02010503763370901</v>
       </c>
       <c r="T9">
-        <v>0.03166281847304111</v>
+        <v>0.02030357314522169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H10">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I10">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J10">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N10">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O10">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P10">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q10">
-        <v>0.01012084424666667</v>
+        <v>0.01661800515933333</v>
       </c>
       <c r="R10">
-        <v>0.09108759822</v>
+        <v>0.149562046434</v>
       </c>
       <c r="S10">
-        <v>1.215092898394702E-05</v>
+        <v>8.165981616796084E-06</v>
       </c>
       <c r="T10">
-        <v>1.705844294419858E-05</v>
+        <v>1.236992997077282E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H11">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I11">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J11">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P11">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q11">
-        <v>1.54691709309</v>
+        <v>2.15419807989</v>
       </c>
       <c r="R11">
-        <v>13.92225383781</v>
+        <v>19.38778271901</v>
       </c>
       <c r="S11">
-        <v>0.001857204723645564</v>
+        <v>0.001058559180277981</v>
       </c>
       <c r="T11">
-        <v>0.00260729207255336</v>
+        <v>0.001603518541239975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H12">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I12">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J12">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q12">
-        <v>0.001091590941</v>
+        <v>0.004672097744555555</v>
       </c>
       <c r="R12">
-        <v>0.009824318469000001</v>
+        <v>0.042048879701</v>
       </c>
       <c r="S12">
-        <v>1.310547191552661E-06</v>
+        <v>2.295838996805659E-06</v>
       </c>
       <c r="T12">
-        <v>1.839850642063321E-06</v>
+        <v>3.477765313142817E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H13">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I13">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J13">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N13">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O13">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P13">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q13">
-        <v>0.272673424179</v>
+        <v>0.5513388622788332</v>
       </c>
       <c r="R13">
-        <v>1.636040545074</v>
+        <v>3.308033173673</v>
       </c>
       <c r="S13">
-        <v>0.000327367493487504</v>
+        <v>0.0002709243962092281</v>
       </c>
       <c r="T13">
-        <v>0.0003063897263503933</v>
+        <v>0.0002735997512402716</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H14">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I14">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J14">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N14">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O14">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P14">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q14">
-        <v>3.459975334373333</v>
+        <v>10.869549232296</v>
       </c>
       <c r="R14">
-        <v>20.75985200624</v>
+        <v>65.21729539377601</v>
       </c>
       <c r="S14">
-        <v>0.004153992843830729</v>
+        <v>0.005341227082477929</v>
       </c>
       <c r="T14">
-        <v>0.003887804244471728</v>
+        <v>0.005393971238954769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H15">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I15">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J15">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>65.97693</v>
       </c>
       <c r="O15">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P15">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q15">
-        <v>528.83878616892</v>
+        <v>1409.02363797444</v>
       </c>
       <c r="R15">
-        <v>3173.03271701352</v>
+        <v>8454.141827846641</v>
       </c>
       <c r="S15">
-        <v>0.6349156629706735</v>
+        <v>0.6923852180216804</v>
       </c>
       <c r="T15">
-        <v>0.5942301544994071</v>
+        <v>0.6992224622948905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H16">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I16">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J16">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N16">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O16">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P16">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q16">
-        <v>0.373178130108</v>
+        <v>3.055938180644</v>
       </c>
       <c r="R16">
-        <v>2.239068780648</v>
+        <v>18.335629083864</v>
       </c>
       <c r="S16">
-        <v>0.0004480318881300729</v>
+        <v>0.001501668507497641</v>
       </c>
       <c r="T16">
-        <v>0.0004193219251491226</v>
+        <v>0.001516497354411046</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H17">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I17">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J17">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q17">
-        <v>93.21784813645199</v>
+        <v>360.6211966935181</v>
       </c>
       <c r="R17">
-        <v>372.871392545808</v>
+        <v>1442.484786774072</v>
       </c>
       <c r="S17">
-        <v>0.1119159059399061</v>
+        <v>0.177206953216785</v>
       </c>
       <c r="T17">
-        <v>0.06982954320415867</v>
+        <v>0.1193045710575679</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H18">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I18">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J18">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N18">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O18">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P18">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q18">
-        <v>0.00404810748</v>
+        <v>0.06260781147933334</v>
       </c>
       <c r="R18">
-        <v>0.03643296732</v>
+        <v>0.5634703033140001</v>
       </c>
       <c r="S18">
-        <v>4.860095196610211E-06</v>
+        <v>3.076507876283395E-05</v>
       </c>
       <c r="T18">
-        <v>6.822989149576804E-06</v>
+        <v>4.660332189075868E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H19">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I19">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J19">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>65.97693</v>
       </c>
       <c r="O19">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P19">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q19">
-        <v>0.61873164954</v>
+        <v>8.11587347469</v>
       </c>
       <c r="R19">
-        <v>5.56858484586</v>
+        <v>73.04286127220999</v>
       </c>
       <c r="S19">
-        <v>0.0007428396436549324</v>
+        <v>0.003988088399487549</v>
       </c>
       <c r="T19">
-        <v>0.001042857520994274</v>
+        <v>0.006041205642374189</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H20">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I20">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J20">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N20">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O20">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P20">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q20">
-        <v>0.000436611546</v>
+        <v>0.01760198122455556</v>
       </c>
       <c r="R20">
-        <v>0.003929503914000001</v>
+        <v>0.158417831021</v>
       </c>
       <c r="S20">
-        <v>5.241890656270713E-07</v>
+        <v>8.649501171816752E-06</v>
       </c>
       <c r="T20">
-        <v>7.35898405775025E-07</v>
+        <v>1.310237137411895E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H21">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I21">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J21">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N21">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O21">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P21">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q21">
-        <v>0.109063167174</v>
+        <v>2.077151813338833</v>
       </c>
       <c r="R21">
-        <v>0.654379003044</v>
+        <v>12.462910880033</v>
       </c>
       <c r="S21">
-        <v>0.0001309395507723658</v>
+        <v>0.001020699136893278</v>
       </c>
       <c r="T21">
-        <v>0.0001225489210984228</v>
+        <v>0.001030778452780948</v>
       </c>
     </row>
   </sheetData>
